--- a/biology/Botanique/Trèfle_noircissant/Trèfle_noircissant.xlsx
+++ b/biology/Botanique/Trèfle_noircissant/Trèfle_noircissant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_noircissant</t>
+          <t>Trèfle_noircissant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium nigrescens
 Le trèfle noircissant (Trifolium nigrescens Viv.) est une plante herbacée annuelle de la famille des Fabacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_noircissant</t>
+          <t>Trèfle_noircissant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante annuelle atteint 10-30 cm de haut et est dotée d’une tige glabre, généralement couchée, non radicante.
 Les feuilles sont formées de trois folioles obovales à obcordées (en cœur renversé), obtuses à émarginées, denticulées dans la partie supérieure.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_noircissant</t>
+          <t>Trèfle_noircissant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Provence, dans le Languedoc, le Roussillon, la Lozère et l’Aveyron et en Corse.
 Il se plaît dans les pelouses, cultures et friches.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_noircissant</t>
+          <t>Trèfle_noircissant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans certaines régions du monde, il est utilisé comme plante fourragère et pour l’amélioration des sols[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certaines régions du monde, il est utilisé comme plante fourragère et pour l’amélioration des sols.
 </t>
         </is>
       </c>
